--- a/src/main/resources/modules/FRAT.xlsx
+++ b/src/main/resources/modules/FRAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF3706-767B-684A-A3F2-14E3370A51C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB17831-7211-1A49-B94E-1A93675C7BA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="491">
   <si>
     <t>TC_ID</t>
   </si>
@@ -1368,12 +1368,147 @@
   <si>
     <t>CommonTC:212</t>
   </si>
+  <si>
+    <t>6628512 Novus: FASB/IASB - Lessee - Additional Revision Triggers - Recurring Payment/Receivable - One Time, On LCD, Lease Year</t>
+  </si>
+  <si>
+    <t>Test_TC_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test TC </t>
+  </si>
+  <si>
+    <t>Test_TC_02</t>
+  </si>
+  <si>
+    <t>Test_TC_03</t>
+  </si>
+  <si>
+    <t>Test_TC_04</t>
+  </si>
+  <si>
+    <t>Test_TC_05</t>
+  </si>
+  <si>
+    <t>Test_TC_06</t>
+  </si>
+  <si>
+    <t>Test_TC_07</t>
+  </si>
+  <si>
+    <t>Test_TC_08</t>
+  </si>
+  <si>
+    <t>Test_TC_09</t>
+  </si>
+  <si>
+    <t>Test_TC_10</t>
+  </si>
+  <si>
+    <t>Test_TC_11</t>
+  </si>
+  <si>
+    <t>Test_TC_12</t>
+  </si>
+  <si>
+    <t>Test_TC_13</t>
+  </si>
+  <si>
+    <t>Test_TC_14</t>
+  </si>
+  <si>
+    <t>Test_TC_15</t>
+  </si>
+  <si>
+    <t>Test_TC_16</t>
+  </si>
+  <si>
+    <t>Test_TC_17</t>
+  </si>
+  <si>
+    <t>Test_TC_18</t>
+  </si>
+  <si>
+    <t>Test_TC_19</t>
+  </si>
+  <si>
+    <t>Test_TC_20</t>
+  </si>
+  <si>
+    <t>Test TC _Fiscal Year</t>
+  </si>
+  <si>
+    <t>200001</t>
+  </si>
+  <si>
+    <t>200002</t>
+  </si>
+  <si>
+    <t>200003</t>
+  </si>
+  <si>
+    <t>200004</t>
+  </si>
+  <si>
+    <t>200005</t>
+  </si>
+  <si>
+    <t>200006</t>
+  </si>
+  <si>
+    <t>200007</t>
+  </si>
+  <si>
+    <t>200008</t>
+  </si>
+  <si>
+    <t>200009</t>
+  </si>
+  <si>
+    <t>200010</t>
+  </si>
+  <si>
+    <t>200011</t>
+  </si>
+  <si>
+    <t>200012</t>
+  </si>
+  <si>
+    <t>200013</t>
+  </si>
+  <si>
+    <t>200014</t>
+  </si>
+  <si>
+    <t>200015</t>
+  </si>
+  <si>
+    <t>200016</t>
+  </si>
+  <si>
+    <t>200017</t>
+  </si>
+  <si>
+    <t>200018</t>
+  </si>
+  <si>
+    <t>200019</t>
+  </si>
+  <si>
+    <t>200020</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Period Receivable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1445,8 +1580,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1561,8 +1700,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1651,12 +1802,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1884,16 +2072,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1945,8 +2131,35 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2230,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z904"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2503,7 +2716,7 @@
       <c r="A11" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="91">
         <v>6628105</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -2526,7 +2739,7 @@
       <c r="A12" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="91">
         <v>6628106</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -3036,7 +3249,7 @@
       <c r="A34" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="94">
+      <c r="B34" s="92">
         <v>6628080</v>
       </c>
       <c r="C34" s="35" t="s">
@@ -3064,7 +3277,7 @@
       <c r="A35" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="94">
+      <c r="B35" s="92">
         <v>6628081</v>
       </c>
       <c r="C35" s="35" t="s">
@@ -3120,7 +3333,7 @@
       <c r="A37" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="94">
+      <c r="B37" s="92">
         <v>6628084</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -3426,7 +3639,7 @@
         <v>193</v>
       </c>
       <c r="B50" s="84">
-        <v>6628094</v>
+        <v>6628095</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>126</v>
@@ -3468,34 +3681,526 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="120" t="s">
+        <v>489</v>
+      </c>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="122"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B54" s="117" t="s">
+        <v>469</v>
+      </c>
+      <c r="C54" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D54" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B55" s="117" t="s">
+        <v>470</v>
+      </c>
+      <c r="C55" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D55" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B56" s="117" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D56" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B57" s="117" t="s">
+        <v>472</v>
+      </c>
+      <c r="C57" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D57" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B58" s="117" t="s">
+        <v>473</v>
+      </c>
+      <c r="C58" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D58" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B59" s="117" t="s">
+        <v>474</v>
+      </c>
+      <c r="C59" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D59" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B60" s="117" t="s">
+        <v>475</v>
+      </c>
+      <c r="C60" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D60" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B61" s="117" t="s">
+        <v>476</v>
+      </c>
+      <c r="C61" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D61" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B62" s="117" t="s">
+        <v>477</v>
+      </c>
+      <c r="C62" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D62" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B63" s="117" t="s">
+        <v>478</v>
+      </c>
+      <c r="C63" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D63" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B64" s="117" t="s">
+        <v>479</v>
+      </c>
+      <c r="C64" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D64" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B65" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="C65" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D65" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B66" s="117" t="s">
+        <v>481</v>
+      </c>
+      <c r="C66" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D66" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B67" s="117" t="s">
+        <v>482</v>
+      </c>
+      <c r="C67" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D67" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="116"/>
+      <c r="H67" s="116"/>
+      <c r="I67" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B68" s="117" t="s">
+        <v>483</v>
+      </c>
+      <c r="C68" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D68" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B69" s="117" t="s">
+        <v>484</v>
+      </c>
+      <c r="C69" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D69" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="116"/>
+      <c r="H69" s="116"/>
+      <c r="I69" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70" s="117" t="s">
+        <v>485</v>
+      </c>
+      <c r="C70" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D70" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="116"/>
+      <c r="H70" s="116"/>
+      <c r="I70" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B71" s="117" t="s">
+        <v>486</v>
+      </c>
+      <c r="C71" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D71" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" s="116"/>
+      <c r="H71" s="116"/>
+      <c r="I71" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B72" s="117" t="s">
+        <v>487</v>
+      </c>
+      <c r="C72" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D72" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" s="116"/>
+      <c r="H72" s="116"/>
+      <c r="I72" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B73" s="117" t="s">
+        <v>488</v>
+      </c>
+      <c r="C73" s="118" t="s">
+        <v>448</v>
+      </c>
+      <c r="D73" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4321,6 +5026,9 @@
     <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A53:I53"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4329,17 +5037,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D613C45-6DFE-684F-AF02-DF238125F6B9}">
-  <dimension ref="A1:AA748"/>
+  <dimension ref="A1:AA735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A384" sqref="A384"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D374" sqref="D374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="48" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="48" customWidth="1"/>
     <col min="4" max="4" width="40.83203125" style="48" customWidth="1"/>
     <col min="5" max="5" width="42.83203125" style="48" customWidth="1"/>
     <col min="6" max="6" width="36" style="48" customWidth="1"/>
@@ -13296,7 +14004,7 @@
       <c r="Z202" s="41"/>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A203" s="93">
+      <c r="A203" s="91">
         <v>6628105</v>
       </c>
       <c r="B203" s="29" t="s">
@@ -13336,7 +14044,7 @@
       <c r="Z203" s="41"/>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A204" s="93">
+      <c r="A204" s="91">
         <v>6628105</v>
       </c>
       <c r="B204" s="29" t="s">
@@ -13376,7 +14084,7 @@
       <c r="Z204" s="41"/>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A205" s="93">
+      <c r="A205" s="91">
         <v>6628105</v>
       </c>
       <c r="B205" s="29" t="s">
@@ -13418,7 +14126,7 @@
       <c r="Z205" s="41"/>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A206" s="93">
+      <c r="A206" s="91">
         <v>6628105</v>
       </c>
       <c r="B206" s="29" t="s">
@@ -13462,7 +14170,7 @@
       <c r="Z206" s="41"/>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A207" s="93">
+      <c r="A207" s="91">
         <v>6628105</v>
       </c>
       <c r="B207" s="29" t="s">
@@ -13504,7 +14212,7 @@
       <c r="Z207" s="41"/>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A208" s="93">
+      <c r="A208" s="91">
         <v>6628105</v>
       </c>
       <c r="B208" s="29" t="s">
@@ -13546,7 +14254,7 @@
       <c r="Z208" s="41"/>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A209" s="93">
+      <c r="A209" s="91">
         <v>6628105</v>
       </c>
       <c r="B209" s="29" t="s">
@@ -13588,7 +14296,7 @@
       <c r="Z209" s="41"/>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A210" s="93">
+      <c r="A210" s="91">
         <v>6628105</v>
       </c>
       <c r="B210" s="10" t="s">
@@ -13636,7 +14344,7 @@
       <c r="Z210" s="41"/>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A211" s="93">
+      <c r="A211" s="91">
         <v>6628105</v>
       </c>
       <c r="B211" s="10" t="s">
@@ -13684,7 +14392,7 @@
       <c r="Z211" s="41"/>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A212" s="93">
+      <c r="A212" s="91">
         <v>6628105</v>
       </c>
       <c r="B212" s="10" t="s">
@@ -13732,7 +14440,7 @@
       <c r="Z212" s="41"/>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A213" s="93">
+      <c r="A213" s="91">
         <v>6628105</v>
       </c>
       <c r="B213" s="29" t="s">
@@ -13774,7 +14482,7 @@
       <c r="Z213" s="41"/>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A214" s="93">
+      <c r="A214" s="91">
         <v>6628105</v>
       </c>
       <c r="B214" s="29" t="s">
@@ -13904,7 +14612,7 @@
       <c r="Z217" s="41"/>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A218" s="93">
+      <c r="A218" s="91">
         <v>6628106</v>
       </c>
       <c r="B218" s="29" t="s">
@@ -13944,7 +14652,7 @@
       <c r="Z218" s="41"/>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A219" s="93">
+      <c r="A219" s="91">
         <v>6628106</v>
       </c>
       <c r="B219" s="29" t="s">
@@ -13984,7 +14692,7 @@
       <c r="Z219" s="41"/>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A220" s="93">
+      <c r="A220" s="91">
         <v>6628106</v>
       </c>
       <c r="B220" s="29" t="s">
@@ -14026,7 +14734,7 @@
       <c r="Z220" s="41"/>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A221" s="93">
+      <c r="A221" s="91">
         <v>6628106</v>
       </c>
       <c r="B221" s="29" t="s">
@@ -14070,7 +14778,7 @@
       <c r="Z221" s="41"/>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A222" s="93">
+      <c r="A222" s="91">
         <v>6628106</v>
       </c>
       <c r="B222" s="29" t="s">
@@ -14112,7 +14820,7 @@
       <c r="Z222" s="41"/>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A223" s="93">
+      <c r="A223" s="91">
         <v>6628106</v>
       </c>
       <c r="B223" s="29" t="s">
@@ -14154,7 +14862,7 @@
       <c r="Z223" s="41"/>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A224" s="93">
+      <c r="A224" s="91">
         <v>6628106</v>
       </c>
       <c r="B224" s="29" t="s">
@@ -14196,7 +14904,7 @@
       <c r="Z224" s="41"/>
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A225" s="93">
+      <c r="A225" s="91">
         <v>6628106</v>
       </c>
       <c r="B225" s="10" t="s">
@@ -14244,7 +14952,7 @@
       <c r="Z225" s="41"/>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A226" s="93">
+      <c r="A226" s="91">
         <v>6628106</v>
       </c>
       <c r="B226" s="10" t="s">
@@ -14292,7 +15000,7 @@
       <c r="Z226" s="41"/>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A227" s="93">
+      <c r="A227" s="91">
         <v>6628106</v>
       </c>
       <c r="B227" s="10" t="s">
@@ -14340,7 +15048,7 @@
       <c r="Z227" s="41"/>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A228" s="93">
+      <c r="A228" s="91">
         <v>6628106</v>
       </c>
       <c r="B228" s="29" t="s">
@@ -14382,7 +15090,7 @@
       <c r="Z228" s="41"/>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A229" s="93">
+      <c r="A229" s="91">
         <v>6628106</v>
       </c>
       <c r="B229" s="29" t="s">
@@ -20594,7 +21302,9 @@
         <v>97</v>
       </c>
       <c r="G373" s="30"/>
-      <c r="H373" s="30"/>
+      <c r="H373" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="I373" s="30" t="s">
         <v>21</v>
       </c>
@@ -20773,7 +21483,7 @@
       <c r="H377" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I377" s="9" t="s">
+      <c r="I377" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J377" s="9" t="s">
@@ -20822,7 +21532,7 @@
       <c r="H378" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I378" s="9" t="s">
+      <c r="I378" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J378" s="9" t="s">
@@ -20871,7 +21581,7 @@
       <c r="H379" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I379" s="9" t="s">
+      <c r="I379" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J379" s="9" t="s">
@@ -20900,19 +21610,19 @@
         <v>6628112</v>
       </c>
       <c r="B380" s="29"/>
-      <c r="C380" s="112" t="s">
+      <c r="C380" s="93" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="112" t="s">
+      <c r="D380" s="93" t="s">
         <v>444</v>
       </c>
-      <c r="E380" s="112" t="s">
+      <c r="E380" s="93" t="s">
         <v>441</v>
       </c>
       <c r="F380" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G380" s="113" t="s">
+      <c r="G380" s="94" t="s">
         <v>443</v>
       </c>
       <c r="H380" s="30" t="s">
@@ -21005,7 +21715,7 @@
       </c>
       <c r="H382" s="30"/>
       <c r="I382" s="30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J382" s="30" t="s">
         <v>23</v>
@@ -21073,7 +21783,7 @@
       <c r="Z383" s="53"/>
       <c r="AA383" s="53"/>
     </row>
-    <row r="384" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
       <c r="B384" s="13"/>
       <c r="C384" s="44"/>
@@ -21101,66 +21811,86 @@
       <c r="Y384" s="41"/>
       <c r="Z384" s="41"/>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A385" s="9"/>
-      <c r="B385" s="13"/>
-      <c r="C385" s="44"/>
-      <c r="D385" s="9"/>
-      <c r="E385" s="9"/>
-      <c r="F385" s="9"/>
-      <c r="G385" s="9"/>
-      <c r="H385" s="9"/>
-      <c r="I385" s="9"/>
-      <c r="J385" s="9"/>
-      <c r="K385" s="9"/>
-      <c r="L385" s="9"/>
-      <c r="M385" s="9"/>
-      <c r="N385" s="9"/>
-      <c r="O385" s="41"/>
-      <c r="P385" s="41"/>
-      <c r="Q385" s="41"/>
-      <c r="R385" s="41"/>
-      <c r="S385" s="41"/>
-      <c r="T385" s="41"/>
-      <c r="U385" s="41"/>
-      <c r="V385" s="41"/>
-      <c r="W385" s="41"/>
-      <c r="X385" s="41"/>
-      <c r="Y385" s="41"/>
-      <c r="Z385" s="41"/>
-    </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A386" s="9"/>
-      <c r="B386" s="91"/>
-      <c r="C386" s="92"/>
-      <c r="D386" s="9"/>
-      <c r="E386" s="9"/>
-      <c r="F386" s="9"/>
-      <c r="G386" s="9"/>
-      <c r="H386" s="9"/>
-      <c r="I386" s="9"/>
-      <c r="J386" s="9"/>
-      <c r="K386" s="9"/>
-      <c r="L386" s="9"/>
-      <c r="M386" s="9"/>
-      <c r="N386" s="9"/>
-      <c r="O386" s="41"/>
-      <c r="P386" s="41"/>
-      <c r="Q386" s="41"/>
-      <c r="R386" s="41"/>
-      <c r="S386" s="41"/>
-      <c r="T386" s="41"/>
-      <c r="U386" s="41"/>
-      <c r="V386" s="41"/>
-      <c r="W386" s="41"/>
-      <c r="X386" s="41"/>
-      <c r="Y386" s="41"/>
-      <c r="Z386" s="41"/>
-    </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="B385" s="102"/>
+      <c r="C385" s="102"/>
+      <c r="D385" s="102"/>
+      <c r="E385" s="102"/>
+      <c r="F385" s="102"/>
+      <c r="G385" s="102"/>
+      <c r="H385" s="102"/>
+      <c r="I385" s="102"/>
+      <c r="J385" s="103"/>
+      <c r="K385" s="119"/>
+      <c r="L385" s="36"/>
+      <c r="M385" s="36"/>
+      <c r="N385" s="36"/>
+      <c r="O385" s="36"/>
+      <c r="P385" s="112"/>
+      <c r="Q385" s="112"/>
+      <c r="R385" s="112"/>
+      <c r="S385" s="112"/>
+      <c r="T385" s="112"/>
+      <c r="U385" s="112"/>
+      <c r="V385" s="112"/>
+      <c r="W385" s="112"/>
+      <c r="X385" s="112"/>
+      <c r="Y385" s="112"/>
+      <c r="Z385" s="112"/>
+      <c r="AA385" s="112"/>
+    </row>
+    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A386" s="117" t="s">
+        <v>469</v>
+      </c>
+      <c r="B386" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C386" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D386" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E386" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F386" s="114"/>
+      <c r="G386" s="114"/>
+      <c r="H386" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="I386" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J386" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K386" s="119"/>
+      <c r="L386" s="36"/>
+      <c r="M386" s="36"/>
+      <c r="N386" s="36"/>
+      <c r="O386" s="36"/>
+      <c r="P386" s="112"/>
+      <c r="Q386" s="112"/>
+      <c r="R386" s="112"/>
+      <c r="S386" s="112"/>
+      <c r="T386" s="112"/>
+      <c r="U386" s="112"/>
+      <c r="V386" s="112"/>
+      <c r="W386" s="112"/>
+      <c r="X386" s="112"/>
+      <c r="Y386" s="112"/>
+      <c r="Z386" s="112"/>
+      <c r="AA386" s="112"/>
+    </row>
+    <row r="387" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9"/>
-      <c r="B387" s="91"/>
-      <c r="C387" s="92"/>
+      <c r="B387" s="9"/>
+      <c r="C387" s="9"/>
       <c r="D387" s="9"/>
       <c r="E387" s="9"/>
       <c r="F387" s="9"/>
@@ -21185,66 +21915,86 @@
       <c r="Y387" s="41"/>
       <c r="Z387" s="41"/>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A388" s="9"/>
-      <c r="B388" s="91"/>
-      <c r="C388" s="92"/>
-      <c r="D388" s="9"/>
-      <c r="E388" s="9"/>
-      <c r="F388" s="9"/>
-      <c r="G388" s="9"/>
-      <c r="H388" s="9"/>
-      <c r="I388" s="9"/>
-      <c r="J388" s="9"/>
-      <c r="K388" s="9"/>
-      <c r="L388" s="9"/>
-      <c r="M388" s="9"/>
-      <c r="N388" s="9"/>
-      <c r="O388" s="41"/>
-      <c r="P388" s="41"/>
-      <c r="Q388" s="41"/>
-      <c r="R388" s="41"/>
-      <c r="S388" s="41"/>
-      <c r="T388" s="41"/>
-      <c r="U388" s="41"/>
-      <c r="V388" s="41"/>
-      <c r="W388" s="41"/>
-      <c r="X388" s="41"/>
-      <c r="Y388" s="41"/>
-      <c r="Z388" s="41"/>
-    </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A389" s="9"/>
-      <c r="B389" s="91"/>
-      <c r="C389" s="92"/>
-      <c r="D389" s="9"/>
-      <c r="E389" s="9"/>
-      <c r="F389" s="9"/>
-      <c r="G389" s="9"/>
-      <c r="H389" s="9"/>
-      <c r="I389" s="9"/>
-      <c r="J389" s="9"/>
-      <c r="K389" s="9"/>
-      <c r="L389" s="9"/>
-      <c r="M389" s="9"/>
-      <c r="N389" s="9"/>
-      <c r="O389" s="41"/>
-      <c r="P389" s="41"/>
-      <c r="Q389" s="41"/>
-      <c r="R389" s="41"/>
-      <c r="S389" s="41"/>
-      <c r="T389" s="41"/>
-      <c r="U389" s="41"/>
-      <c r="V389" s="41"/>
-      <c r="W389" s="41"/>
-      <c r="X389" s="41"/>
-      <c r="Y389" s="41"/>
-      <c r="Z389" s="41"/>
-    </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="B388" s="102"/>
+      <c r="C388" s="102"/>
+      <c r="D388" s="102"/>
+      <c r="E388" s="102"/>
+      <c r="F388" s="102"/>
+      <c r="G388" s="102"/>
+      <c r="H388" s="102"/>
+      <c r="I388" s="102"/>
+      <c r="J388" s="103"/>
+      <c r="K388" s="119"/>
+      <c r="L388" s="36"/>
+      <c r="M388" s="36"/>
+      <c r="N388" s="36"/>
+      <c r="O388" s="36"/>
+      <c r="P388" s="112"/>
+      <c r="Q388" s="112"/>
+      <c r="R388" s="112"/>
+      <c r="S388" s="112"/>
+      <c r="T388" s="112"/>
+      <c r="U388" s="112"/>
+      <c r="V388" s="112"/>
+      <c r="W388" s="112"/>
+      <c r="X388" s="112"/>
+      <c r="Y388" s="112"/>
+      <c r="Z388" s="112"/>
+      <c r="AA388" s="112"/>
+    </row>
+    <row r="389" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A389" s="117" t="s">
+        <v>470</v>
+      </c>
+      <c r="B389" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C389" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D389" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E389" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F389" s="114"/>
+      <c r="G389" s="114"/>
+      <c r="H389" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="I389" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J389" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K389" s="119"/>
+      <c r="L389" s="36"/>
+      <c r="M389" s="36"/>
+      <c r="N389" s="36"/>
+      <c r="O389" s="36"/>
+      <c r="P389" s="112"/>
+      <c r="Q389" s="112"/>
+      <c r="R389" s="112"/>
+      <c r="S389" s="112"/>
+      <c r="T389" s="112"/>
+      <c r="U389" s="112"/>
+      <c r="V389" s="112"/>
+      <c r="W389" s="112"/>
+      <c r="X389" s="112"/>
+      <c r="Y389" s="112"/>
+      <c r="Z389" s="112"/>
+      <c r="AA389" s="112"/>
+    </row>
+    <row r="390" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9"/>
-      <c r="B390" s="91"/>
-      <c r="C390" s="92"/>
+      <c r="B390" s="9"/>
+      <c r="C390" s="9"/>
       <c r="D390" s="9"/>
       <c r="E390" s="9"/>
       <c r="F390" s="9"/>
@@ -21269,66 +22019,86 @@
       <c r="Y390" s="41"/>
       <c r="Z390" s="41"/>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A391" s="9"/>
-      <c r="B391" s="91"/>
-      <c r="C391" s="92"/>
-      <c r="D391" s="9"/>
-      <c r="E391" s="9"/>
-      <c r="F391" s="9"/>
-      <c r="G391" s="9"/>
-      <c r="H391" s="9"/>
-      <c r="I391" s="9"/>
-      <c r="J391" s="9"/>
-      <c r="K391" s="9"/>
-      <c r="L391" s="9"/>
-      <c r="M391" s="9"/>
-      <c r="N391" s="9"/>
-      <c r="O391" s="41"/>
-      <c r="P391" s="41"/>
-      <c r="Q391" s="41"/>
-      <c r="R391" s="41"/>
-      <c r="S391" s="41"/>
-      <c r="T391" s="41"/>
-      <c r="U391" s="41"/>
-      <c r="V391" s="41"/>
-      <c r="W391" s="41"/>
-      <c r="X391" s="41"/>
-      <c r="Y391" s="41"/>
-      <c r="Z391" s="41"/>
-    </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A392" s="9"/>
-      <c r="B392" s="91"/>
-      <c r="C392" s="92"/>
-      <c r="D392" s="9"/>
-      <c r="E392" s="9"/>
-      <c r="F392" s="9"/>
-      <c r="G392" s="9"/>
-      <c r="H392" s="9"/>
-      <c r="I392" s="9"/>
-      <c r="J392" s="9"/>
-      <c r="K392" s="9"/>
-      <c r="L392" s="9"/>
-      <c r="M392" s="9"/>
-      <c r="N392" s="9"/>
-      <c r="O392" s="41"/>
-      <c r="P392" s="41"/>
-      <c r="Q392" s="41"/>
-      <c r="R392" s="41"/>
-      <c r="S392" s="41"/>
-      <c r="T392" s="41"/>
-      <c r="U392" s="41"/>
-      <c r="V392" s="41"/>
-      <c r="W392" s="41"/>
-      <c r="X392" s="41"/>
-      <c r="Y392" s="41"/>
-      <c r="Z392" s="41"/>
-    </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="B391" s="102"/>
+      <c r="C391" s="102"/>
+      <c r="D391" s="102"/>
+      <c r="E391" s="102"/>
+      <c r="F391" s="102"/>
+      <c r="G391" s="102"/>
+      <c r="H391" s="102"/>
+      <c r="I391" s="102"/>
+      <c r="J391" s="103"/>
+      <c r="K391" s="119"/>
+      <c r="L391" s="36"/>
+      <c r="M391" s="36"/>
+      <c r="N391" s="36"/>
+      <c r="O391" s="36"/>
+      <c r="P391" s="112"/>
+      <c r="Q391" s="112"/>
+      <c r="R391" s="112"/>
+      <c r="S391" s="112"/>
+      <c r="T391" s="112"/>
+      <c r="U391" s="112"/>
+      <c r="V391" s="112"/>
+      <c r="W391" s="112"/>
+      <c r="X391" s="112"/>
+      <c r="Y391" s="112"/>
+      <c r="Z391" s="112"/>
+      <c r="AA391" s="112"/>
+    </row>
+    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A392" s="117" t="s">
+        <v>471</v>
+      </c>
+      <c r="B392" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C392" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D392" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E392" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F392" s="114"/>
+      <c r="G392" s="114"/>
+      <c r="H392" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="I392" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J392" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K392" s="119"/>
+      <c r="L392" s="36"/>
+      <c r="M392" s="36"/>
+      <c r="N392" s="36"/>
+      <c r="O392" s="36"/>
+      <c r="P392" s="112"/>
+      <c r="Q392" s="112"/>
+      <c r="R392" s="112"/>
+      <c r="S392" s="112"/>
+      <c r="T392" s="112"/>
+      <c r="U392" s="112"/>
+      <c r="V392" s="112"/>
+      <c r="W392" s="112"/>
+      <c r="X392" s="112"/>
+      <c r="Y392" s="112"/>
+      <c r="Z392" s="112"/>
+      <c r="AA392" s="112"/>
+    </row>
+    <row r="393" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9"/>
-      <c r="B393" s="91"/>
-      <c r="C393" s="92"/>
+      <c r="B393" s="9"/>
+      <c r="C393" s="9"/>
       <c r="D393" s="9"/>
       <c r="E393" s="9"/>
       <c r="F393" s="9"/>
@@ -21353,66 +22123,86 @@
       <c r="Y393" s="41"/>
       <c r="Z393" s="41"/>
     </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A394" s="9"/>
-      <c r="B394" s="91"/>
-      <c r="C394" s="92"/>
-      <c r="D394" s="9"/>
-      <c r="E394" s="9"/>
-      <c r="F394" s="9"/>
-      <c r="G394" s="9"/>
-      <c r="H394" s="9"/>
-      <c r="I394" s="9"/>
-      <c r="J394" s="9"/>
-      <c r="K394" s="9"/>
-      <c r="L394" s="9"/>
-      <c r="M394" s="9"/>
-      <c r="N394" s="9"/>
-      <c r="O394" s="41"/>
-      <c r="P394" s="41"/>
-      <c r="Q394" s="41"/>
-      <c r="R394" s="41"/>
-      <c r="S394" s="41"/>
-      <c r="T394" s="41"/>
-      <c r="U394" s="41"/>
-      <c r="V394" s="41"/>
-      <c r="W394" s="41"/>
-      <c r="X394" s="41"/>
-      <c r="Y394" s="41"/>
-      <c r="Z394" s="41"/>
-    </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A395" s="9"/>
-      <c r="B395" s="91"/>
-      <c r="C395" s="92"/>
-      <c r="D395" s="9"/>
-      <c r="E395" s="9"/>
-      <c r="F395" s="9"/>
-      <c r="G395" s="9"/>
-      <c r="H395" s="9"/>
-      <c r="I395" s="9"/>
-      <c r="J395" s="9"/>
-      <c r="K395" s="9"/>
-      <c r="L395" s="9"/>
-      <c r="M395" s="9"/>
-      <c r="N395" s="9"/>
-      <c r="O395" s="41"/>
-      <c r="P395" s="41"/>
-      <c r="Q395" s="41"/>
-      <c r="R395" s="41"/>
-      <c r="S395" s="41"/>
-      <c r="T395" s="41"/>
-      <c r="U395" s="41"/>
-      <c r="V395" s="41"/>
-      <c r="W395" s="41"/>
-      <c r="X395" s="41"/>
-      <c r="Y395" s="41"/>
-      <c r="Z395" s="41"/>
-    </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="B394" s="102"/>
+      <c r="C394" s="102"/>
+      <c r="D394" s="102"/>
+      <c r="E394" s="102"/>
+      <c r="F394" s="102"/>
+      <c r="G394" s="102"/>
+      <c r="H394" s="102"/>
+      <c r="I394" s="102"/>
+      <c r="J394" s="103"/>
+      <c r="K394" s="119"/>
+      <c r="L394" s="36"/>
+      <c r="M394" s="36"/>
+      <c r="N394" s="36"/>
+      <c r="O394" s="36"/>
+      <c r="P394" s="112"/>
+      <c r="Q394" s="112"/>
+      <c r="R394" s="112"/>
+      <c r="S394" s="112"/>
+      <c r="T394" s="112"/>
+      <c r="U394" s="112"/>
+      <c r="V394" s="112"/>
+      <c r="W394" s="112"/>
+      <c r="X394" s="112"/>
+      <c r="Y394" s="112"/>
+      <c r="Z394" s="112"/>
+      <c r="AA394" s="112"/>
+    </row>
+    <row r="395" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A395" s="117" t="s">
+        <v>472</v>
+      </c>
+      <c r="B395" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C395" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D395" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E395" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F395" s="114"/>
+      <c r="G395" s="114"/>
+      <c r="H395" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="I395" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J395" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K395" s="119"/>
+      <c r="L395" s="36"/>
+      <c r="M395" s="36"/>
+      <c r="N395" s="36"/>
+      <c r="O395" s="36"/>
+      <c r="P395" s="112"/>
+      <c r="Q395" s="112"/>
+      <c r="R395" s="112"/>
+      <c r="S395" s="112"/>
+      <c r="T395" s="112"/>
+      <c r="U395" s="112"/>
+      <c r="V395" s="112"/>
+      <c r="W395" s="112"/>
+      <c r="X395" s="112"/>
+      <c r="Y395" s="112"/>
+      <c r="Z395" s="112"/>
+      <c r="AA395" s="112"/>
+    </row>
+    <row r="396" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9"/>
-      <c r="B396" s="91"/>
-      <c r="C396" s="92"/>
+      <c r="B396" s="9"/>
+      <c r="C396" s="9"/>
       <c r="D396" s="9"/>
       <c r="E396" s="9"/>
       <c r="F396" s="9"/>
@@ -21437,66 +22227,86 @@
       <c r="Y396" s="41"/>
       <c r="Z396" s="41"/>
     </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A397" s="9"/>
-      <c r="B397" s="91"/>
-      <c r="C397" s="92"/>
-      <c r="D397" s="9"/>
-      <c r="E397" s="9"/>
-      <c r="F397" s="9"/>
-      <c r="G397" s="9"/>
-      <c r="H397" s="9"/>
-      <c r="I397" s="9"/>
-      <c r="J397" s="9"/>
-      <c r="K397" s="9"/>
-      <c r="L397" s="9"/>
-      <c r="M397" s="9"/>
-      <c r="N397" s="9"/>
-      <c r="O397" s="41"/>
-      <c r="P397" s="41"/>
-      <c r="Q397" s="41"/>
-      <c r="R397" s="41"/>
-      <c r="S397" s="41"/>
-      <c r="T397" s="41"/>
-      <c r="U397" s="41"/>
-      <c r="V397" s="41"/>
-      <c r="W397" s="41"/>
-      <c r="X397" s="41"/>
-      <c r="Y397" s="41"/>
-      <c r="Z397" s="41"/>
-    </row>
-    <row r="398" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A398" s="9"/>
-      <c r="B398" s="91"/>
-      <c r="C398" s="92"/>
-      <c r="D398" s="9"/>
-      <c r="E398" s="9"/>
-      <c r="F398" s="9"/>
-      <c r="G398" s="9"/>
-      <c r="H398" s="9"/>
-      <c r="I398" s="9"/>
-      <c r="J398" s="9"/>
-      <c r="K398" s="9"/>
-      <c r="L398" s="9"/>
-      <c r="M398" s="9"/>
-      <c r="N398" s="9"/>
-      <c r="O398" s="41"/>
-      <c r="P398" s="41"/>
-      <c r="Q398" s="41"/>
-      <c r="R398" s="41"/>
-      <c r="S398" s="41"/>
-      <c r="T398" s="41"/>
-      <c r="U398" s="41"/>
-      <c r="V398" s="41"/>
-      <c r="W398" s="41"/>
-      <c r="X398" s="41"/>
-      <c r="Y398" s="41"/>
-      <c r="Z398" s="41"/>
-    </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="B397" s="102"/>
+      <c r="C397" s="102"/>
+      <c r="D397" s="102"/>
+      <c r="E397" s="102"/>
+      <c r="F397" s="102"/>
+      <c r="G397" s="102"/>
+      <c r="H397" s="102"/>
+      <c r="I397" s="102"/>
+      <c r="J397" s="103"/>
+      <c r="K397" s="119"/>
+      <c r="L397" s="36"/>
+      <c r="M397" s="36"/>
+      <c r="N397" s="36"/>
+      <c r="O397" s="36"/>
+      <c r="P397" s="112"/>
+      <c r="Q397" s="112"/>
+      <c r="R397" s="112"/>
+      <c r="S397" s="112"/>
+      <c r="T397" s="112"/>
+      <c r="U397" s="112"/>
+      <c r="V397" s="112"/>
+      <c r="W397" s="112"/>
+      <c r="X397" s="112"/>
+      <c r="Y397" s="112"/>
+      <c r="Z397" s="112"/>
+      <c r="AA397" s="112"/>
+    </row>
+    <row r="398" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A398" s="117" t="s">
+        <v>473</v>
+      </c>
+      <c r="B398" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C398" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D398" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E398" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F398" s="114"/>
+      <c r="G398" s="114"/>
+      <c r="H398" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="I398" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J398" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K398" s="119"/>
+      <c r="L398" s="36"/>
+      <c r="M398" s="36"/>
+      <c r="N398" s="36"/>
+      <c r="O398" s="36"/>
+      <c r="P398" s="112"/>
+      <c r="Q398" s="112"/>
+      <c r="R398" s="112"/>
+      <c r="S398" s="112"/>
+      <c r="T398" s="112"/>
+      <c r="U398" s="112"/>
+      <c r="V398" s="112"/>
+      <c r="W398" s="112"/>
+      <c r="X398" s="112"/>
+      <c r="Y398" s="112"/>
+      <c r="Z398" s="112"/>
+      <c r="AA398" s="112"/>
+    </row>
+    <row r="399" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9"/>
-      <c r="B399" s="91"/>
-      <c r="C399" s="92"/>
+      <c r="B399" s="9"/>
+      <c r="C399" s="9"/>
       <c r="D399" s="9"/>
       <c r="E399" s="9"/>
       <c r="F399" s="9"/>
@@ -21521,63 +22331,83 @@
       <c r="Y399" s="41"/>
       <c r="Z399" s="41"/>
     </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A400" s="9"/>
-      <c r="B400" s="9"/>
-      <c r="C400" s="9"/>
-      <c r="D400" s="9"/>
-      <c r="E400" s="9"/>
-      <c r="F400" s="9"/>
-      <c r="G400" s="9"/>
-      <c r="H400" s="9"/>
-      <c r="I400" s="9"/>
-      <c r="J400" s="9"/>
-      <c r="K400" s="9"/>
-      <c r="L400" s="9"/>
-      <c r="M400" s="9"/>
-      <c r="N400" s="9"/>
-      <c r="O400" s="41"/>
-      <c r="P400" s="41"/>
-      <c r="Q400" s="41"/>
-      <c r="R400" s="41"/>
-      <c r="S400" s="41"/>
-      <c r="T400" s="41"/>
-      <c r="U400" s="41"/>
-      <c r="V400" s="41"/>
-      <c r="W400" s="41"/>
-      <c r="X400" s="41"/>
-      <c r="Y400" s="41"/>
-      <c r="Z400" s="41"/>
-    </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A401" s="9"/>
-      <c r="B401" s="9"/>
-      <c r="C401" s="9"/>
-      <c r="D401" s="9"/>
-      <c r="E401" s="9"/>
-      <c r="F401" s="9"/>
-      <c r="G401" s="9"/>
-      <c r="H401" s="9"/>
-      <c r="I401" s="9"/>
-      <c r="J401" s="9"/>
-      <c r="K401" s="9"/>
-      <c r="L401" s="9"/>
-      <c r="M401" s="9"/>
-      <c r="N401" s="9"/>
-      <c r="O401" s="41"/>
-      <c r="P401" s="41"/>
-      <c r="Q401" s="41"/>
-      <c r="R401" s="41"/>
-      <c r="S401" s="41"/>
-      <c r="T401" s="41"/>
-      <c r="U401" s="41"/>
-      <c r="V401" s="41"/>
-      <c r="W401" s="41"/>
-      <c r="X401" s="41"/>
-      <c r="Y401" s="41"/>
-      <c r="Z401" s="41"/>
-    </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="B400" s="102"/>
+      <c r="C400" s="102"/>
+      <c r="D400" s="102"/>
+      <c r="E400" s="102"/>
+      <c r="F400" s="102"/>
+      <c r="G400" s="102"/>
+      <c r="H400" s="102"/>
+      <c r="I400" s="102"/>
+      <c r="J400" s="103"/>
+      <c r="K400" s="119"/>
+      <c r="L400" s="36"/>
+      <c r="M400" s="36"/>
+      <c r="N400" s="36"/>
+      <c r="O400" s="36"/>
+      <c r="P400" s="112"/>
+      <c r="Q400" s="112"/>
+      <c r="R400" s="112"/>
+      <c r="S400" s="112"/>
+      <c r="T400" s="112"/>
+      <c r="U400" s="112"/>
+      <c r="V400" s="112"/>
+      <c r="W400" s="112"/>
+      <c r="X400" s="112"/>
+      <c r="Y400" s="112"/>
+      <c r="Z400" s="112"/>
+      <c r="AA400" s="112"/>
+    </row>
+    <row r="401" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A401" s="117" t="s">
+        <v>474</v>
+      </c>
+      <c r="B401" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C401" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D401" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E401" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F401" s="114"/>
+      <c r="G401" s="114"/>
+      <c r="H401" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="I401" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J401" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K401" s="119"/>
+      <c r="L401" s="36"/>
+      <c r="M401" s="36"/>
+      <c r="N401" s="36"/>
+      <c r="O401" s="36"/>
+      <c r="P401" s="112"/>
+      <c r="Q401" s="112"/>
+      <c r="R401" s="112"/>
+      <c r="S401" s="112"/>
+      <c r="T401" s="112"/>
+      <c r="U401" s="112"/>
+      <c r="V401" s="112"/>
+      <c r="W401" s="112"/>
+      <c r="X401" s="112"/>
+      <c r="Y401" s="112"/>
+      <c r="Z401" s="112"/>
+      <c r="AA401" s="112"/>
+    </row>
+    <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -21605,7 +22435,7 @@
       <c r="Y402" s="41"/>
       <c r="Z402" s="41"/>
     </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -21633,7 +22463,7 @@
       <c r="Y403" s="41"/>
       <c r="Z403" s="41"/>
     </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -21661,7 +22491,7 @@
       <c r="Y404" s="41"/>
       <c r="Z404" s="41"/>
     </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -21689,7 +22519,7 @@
       <c r="Y405" s="41"/>
       <c r="Z405" s="41"/>
     </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -21717,7 +22547,7 @@
       <c r="Y406" s="41"/>
       <c r="Z406" s="41"/>
     </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -21745,7 +22575,7 @@
       <c r="Y407" s="41"/>
       <c r="Z407" s="41"/>
     </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -21773,7 +22603,7 @@
       <c r="Y408" s="41"/>
       <c r="Z408" s="41"/>
     </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -21801,7 +22631,7 @@
       <c r="Y409" s="41"/>
       <c r="Z409" s="41"/>
     </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -21829,7 +22659,7 @@
       <c r="Y410" s="41"/>
       <c r="Z410" s="41"/>
     </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -21857,7 +22687,7 @@
       <c r="Y411" s="41"/>
       <c r="Z411" s="41"/>
     </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -21885,7 +22715,7 @@
       <c r="Y412" s="41"/>
       <c r="Z412" s="41"/>
     </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -21913,7 +22743,7 @@
       <c r="Y413" s="41"/>
       <c r="Z413" s="41"/>
     </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -21941,7 +22771,7 @@
       <c r="Y414" s="41"/>
       <c r="Z414" s="41"/>
     </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -21969,7 +22799,7 @@
       <c r="Y415" s="41"/>
       <c r="Z415" s="41"/>
     </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -30929,372 +31759,14 @@
       <c r="Y735" s="41"/>
       <c r="Z735" s="41"/>
     </row>
-    <row r="736" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A736" s="9"/>
-      <c r="B736" s="9"/>
-      <c r="C736" s="9"/>
-      <c r="D736" s="9"/>
-      <c r="E736" s="9"/>
-      <c r="F736" s="9"/>
-      <c r="G736" s="9"/>
-      <c r="H736" s="9"/>
-      <c r="I736" s="9"/>
-      <c r="J736" s="9"/>
-      <c r="K736" s="9"/>
-      <c r="L736" s="9"/>
-      <c r="M736" s="9"/>
-      <c r="N736" s="9"/>
-      <c r="O736" s="41"/>
-      <c r="P736" s="41"/>
-      <c r="Q736" s="41"/>
-      <c r="R736" s="41"/>
-      <c r="S736" s="41"/>
-      <c r="T736" s="41"/>
-      <c r="U736" s="41"/>
-      <c r="V736" s="41"/>
-      <c r="W736" s="41"/>
-      <c r="X736" s="41"/>
-      <c r="Y736" s="41"/>
-      <c r="Z736" s="41"/>
-    </row>
-    <row r="737" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A737" s="9"/>
-      <c r="B737" s="9"/>
-      <c r="C737" s="9"/>
-      <c r="D737" s="9"/>
-      <c r="E737" s="9"/>
-      <c r="F737" s="9"/>
-      <c r="G737" s="9"/>
-      <c r="H737" s="9"/>
-      <c r="I737" s="9"/>
-      <c r="J737" s="9"/>
-      <c r="K737" s="9"/>
-      <c r="L737" s="9"/>
-      <c r="M737" s="9"/>
-      <c r="N737" s="9"/>
-      <c r="O737" s="41"/>
-      <c r="P737" s="41"/>
-      <c r="Q737" s="41"/>
-      <c r="R737" s="41"/>
-      <c r="S737" s="41"/>
-      <c r="T737" s="41"/>
-      <c r="U737" s="41"/>
-      <c r="V737" s="41"/>
-      <c r="W737" s="41"/>
-      <c r="X737" s="41"/>
-      <c r="Y737" s="41"/>
-      <c r="Z737" s="41"/>
-    </row>
-    <row r="738" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A738" s="9"/>
-      <c r="B738" s="9"/>
-      <c r="C738" s="9"/>
-      <c r="D738" s="9"/>
-      <c r="E738" s="9"/>
-      <c r="F738" s="9"/>
-      <c r="G738" s="9"/>
-      <c r="H738" s="9"/>
-      <c r="I738" s="9"/>
-      <c r="J738" s="9"/>
-      <c r="K738" s="9"/>
-      <c r="L738" s="9"/>
-      <c r="M738" s="9"/>
-      <c r="N738" s="9"/>
-      <c r="O738" s="41"/>
-      <c r="P738" s="41"/>
-      <c r="Q738" s="41"/>
-      <c r="R738" s="41"/>
-      <c r="S738" s="41"/>
-      <c r="T738" s="41"/>
-      <c r="U738" s="41"/>
-      <c r="V738" s="41"/>
-      <c r="W738" s="41"/>
-      <c r="X738" s="41"/>
-      <c r="Y738" s="41"/>
-      <c r="Z738" s="41"/>
-    </row>
-    <row r="739" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A739" s="9"/>
-      <c r="B739" s="9"/>
-      <c r="C739" s="9"/>
-      <c r="D739" s="9"/>
-      <c r="E739" s="9"/>
-      <c r="F739" s="9"/>
-      <c r="G739" s="9"/>
-      <c r="H739" s="9"/>
-      <c r="I739" s="9"/>
-      <c r="J739" s="9"/>
-      <c r="K739" s="9"/>
-      <c r="L739" s="9"/>
-      <c r="M739" s="9"/>
-      <c r="N739" s="9"/>
-      <c r="O739" s="41"/>
-      <c r="P739" s="41"/>
-      <c r="Q739" s="41"/>
-      <c r="R739" s="41"/>
-      <c r="S739" s="41"/>
-      <c r="T739" s="41"/>
-      <c r="U739" s="41"/>
-      <c r="V739" s="41"/>
-      <c r="W739" s="41"/>
-      <c r="X739" s="41"/>
-      <c r="Y739" s="41"/>
-      <c r="Z739" s="41"/>
-    </row>
-    <row r="740" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A740" s="9"/>
-      <c r="B740" s="9"/>
-      <c r="C740" s="9"/>
-      <c r="D740" s="9"/>
-      <c r="E740" s="9"/>
-      <c r="F740" s="9"/>
-      <c r="G740" s="9"/>
-      <c r="H740" s="9"/>
-      <c r="I740" s="9"/>
-      <c r="J740" s="9"/>
-      <c r="K740" s="9"/>
-      <c r="L740" s="9"/>
-      <c r="M740" s="9"/>
-      <c r="N740" s="9"/>
-      <c r="O740" s="41"/>
-      <c r="P740" s="41"/>
-      <c r="Q740" s="41"/>
-      <c r="R740" s="41"/>
-      <c r="S740" s="41"/>
-      <c r="T740" s="41"/>
-      <c r="U740" s="41"/>
-      <c r="V740" s="41"/>
-      <c r="W740" s="41"/>
-      <c r="X740" s="41"/>
-      <c r="Y740" s="41"/>
-      <c r="Z740" s="41"/>
-    </row>
-    <row r="741" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A741" s="9"/>
-      <c r="B741" s="9"/>
-      <c r="C741" s="9"/>
-      <c r="D741" s="9"/>
-      <c r="E741" s="9"/>
-      <c r="F741" s="9"/>
-      <c r="G741" s="9"/>
-      <c r="H741" s="9"/>
-      <c r="I741" s="9"/>
-      <c r="J741" s="9"/>
-      <c r="K741" s="9"/>
-      <c r="L741" s="9"/>
-      <c r="M741" s="9"/>
-      <c r="N741" s="9"/>
-      <c r="O741" s="41"/>
-      <c r="P741" s="41"/>
-      <c r="Q741" s="41"/>
-      <c r="R741" s="41"/>
-      <c r="S741" s="41"/>
-      <c r="T741" s="41"/>
-      <c r="U741" s="41"/>
-      <c r="V741" s="41"/>
-      <c r="W741" s="41"/>
-      <c r="X741" s="41"/>
-      <c r="Y741" s="41"/>
-      <c r="Z741" s="41"/>
-    </row>
-    <row r="742" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A742" s="9"/>
-      <c r="B742" s="9"/>
-      <c r="C742" s="9"/>
-      <c r="D742" s="9"/>
-      <c r="E742" s="9"/>
-      <c r="F742" s="9"/>
-      <c r="G742" s="9"/>
-      <c r="H742" s="9"/>
-      <c r="I742" s="9"/>
-      <c r="J742" s="9"/>
-      <c r="K742" s="9"/>
-      <c r="L742" s="9"/>
-      <c r="M742" s="9"/>
-      <c r="N742" s="9"/>
-      <c r="O742" s="41"/>
-      <c r="P742" s="41"/>
-      <c r="Q742" s="41"/>
-      <c r="R742" s="41"/>
-      <c r="S742" s="41"/>
-      <c r="T742" s="41"/>
-      <c r="U742" s="41"/>
-      <c r="V742" s="41"/>
-      <c r="W742" s="41"/>
-      <c r="X742" s="41"/>
-      <c r="Y742" s="41"/>
-      <c r="Z742" s="41"/>
-    </row>
-    <row r="743" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A743" s="9"/>
-      <c r="B743" s="9"/>
-      <c r="C743" s="9"/>
-      <c r="D743" s="9"/>
-      <c r="E743" s="9"/>
-      <c r="F743" s="9"/>
-      <c r="G743" s="9"/>
-      <c r="H743" s="9"/>
-      <c r="I743" s="9"/>
-      <c r="J743" s="9"/>
-      <c r="K743" s="9"/>
-      <c r="L743" s="9"/>
-      <c r="M743" s="9"/>
-      <c r="N743" s="9"/>
-      <c r="O743" s="41"/>
-      <c r="P743" s="41"/>
-      <c r="Q743" s="41"/>
-      <c r="R743" s="41"/>
-      <c r="S743" s="41"/>
-      <c r="T743" s="41"/>
-      <c r="U743" s="41"/>
-      <c r="V743" s="41"/>
-      <c r="W743" s="41"/>
-      <c r="X743" s="41"/>
-      <c r="Y743" s="41"/>
-      <c r="Z743" s="41"/>
-    </row>
-    <row r="744" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A744" s="9"/>
-      <c r="B744" s="9"/>
-      <c r="C744" s="9"/>
-      <c r="D744" s="9"/>
-      <c r="E744" s="9"/>
-      <c r="F744" s="9"/>
-      <c r="G744" s="9"/>
-      <c r="H744" s="9"/>
-      <c r="I744" s="9"/>
-      <c r="J744" s="9"/>
-      <c r="K744" s="9"/>
-      <c r="L744" s="9"/>
-      <c r="M744" s="9"/>
-      <c r="N744" s="9"/>
-      <c r="O744" s="41"/>
-      <c r="P744" s="41"/>
-      <c r="Q744" s="41"/>
-      <c r="R744" s="41"/>
-      <c r="S744" s="41"/>
-      <c r="T744" s="41"/>
-      <c r="U744" s="41"/>
-      <c r="V744" s="41"/>
-      <c r="W744" s="41"/>
-      <c r="X744" s="41"/>
-      <c r="Y744" s="41"/>
-      <c r="Z744" s="41"/>
-    </row>
-    <row r="745" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A745" s="9"/>
-      <c r="B745" s="9"/>
-      <c r="C745" s="9"/>
-      <c r="D745" s="9"/>
-      <c r="E745" s="9"/>
-      <c r="F745" s="9"/>
-      <c r="G745" s="9"/>
-      <c r="H745" s="9"/>
-      <c r="I745" s="9"/>
-      <c r="J745" s="9"/>
-      <c r="K745" s="9"/>
-      <c r="L745" s="9"/>
-      <c r="M745" s="9"/>
-      <c r="N745" s="9"/>
-      <c r="O745" s="41"/>
-      <c r="P745" s="41"/>
-      <c r="Q745" s="41"/>
-      <c r="R745" s="41"/>
-      <c r="S745" s="41"/>
-      <c r="T745" s="41"/>
-      <c r="U745" s="41"/>
-      <c r="V745" s="41"/>
-      <c r="W745" s="41"/>
-      <c r="X745" s="41"/>
-      <c r="Y745" s="41"/>
-      <c r="Z745" s="41"/>
-    </row>
-    <row r="746" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A746" s="9"/>
-      <c r="B746" s="9"/>
-      <c r="C746" s="9"/>
-      <c r="D746" s="9"/>
-      <c r="E746" s="9"/>
-      <c r="F746" s="9"/>
-      <c r="G746" s="9"/>
-      <c r="H746" s="9"/>
-      <c r="I746" s="9"/>
-      <c r="J746" s="9"/>
-      <c r="K746" s="9"/>
-      <c r="L746" s="9"/>
-      <c r="M746" s="9"/>
-      <c r="N746" s="9"/>
-      <c r="O746" s="41"/>
-      <c r="P746" s="41"/>
-      <c r="Q746" s="41"/>
-      <c r="R746" s="41"/>
-      <c r="S746" s="41"/>
-      <c r="T746" s="41"/>
-      <c r="U746" s="41"/>
-      <c r="V746" s="41"/>
-      <c r="W746" s="41"/>
-      <c r="X746" s="41"/>
-      <c r="Y746" s="41"/>
-      <c r="Z746" s="41"/>
-    </row>
-    <row r="747" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A747" s="9"/>
-      <c r="B747" s="9"/>
-      <c r="C747" s="9"/>
-      <c r="D747" s="9"/>
-      <c r="E747" s="9"/>
-      <c r="F747" s="9"/>
-      <c r="G747" s="9"/>
-      <c r="H747" s="9"/>
-      <c r="I747" s="9"/>
-      <c r="J747" s="9"/>
-      <c r="K747" s="9"/>
-      <c r="L747" s="9"/>
-      <c r="M747" s="9"/>
-      <c r="N747" s="9"/>
-      <c r="O747" s="41"/>
-      <c r="P747" s="41"/>
-      <c r="Q747" s="41"/>
-      <c r="R747" s="41"/>
-      <c r="S747" s="41"/>
-      <c r="T747" s="41"/>
-      <c r="U747" s="41"/>
-      <c r="V747" s="41"/>
-      <c r="W747" s="41"/>
-      <c r="X747" s="41"/>
-      <c r="Y747" s="41"/>
-      <c r="Z747" s="41"/>
-    </row>
-    <row r="748" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A748" s="9"/>
-      <c r="B748" s="9"/>
-      <c r="C748" s="9"/>
-      <c r="D748" s="9"/>
-      <c r="E748" s="9"/>
-      <c r="F748" s="9"/>
-      <c r="G748" s="9"/>
-      <c r="H748" s="9"/>
-      <c r="I748" s="9"/>
-      <c r="J748" s="9"/>
-      <c r="K748" s="9"/>
-      <c r="L748" s="9"/>
-      <c r="M748" s="9"/>
-      <c r="N748" s="9"/>
-      <c r="O748" s="41"/>
-      <c r="P748" s="41"/>
-      <c r="Q748" s="41"/>
-      <c r="R748" s="41"/>
-      <c r="S748" s="41"/>
-      <c r="T748" s="41"/>
-      <c r="U748" s="41"/>
-      <c r="V748" s="41"/>
-      <c r="W748" s="41"/>
-      <c r="X748" s="41"/>
-      <c r="Y748" s="41"/>
-      <c r="Z748" s="41"/>
-    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="A400:J400"/>
+    <mergeCell ref="A385:J385"/>
+    <mergeCell ref="A388:J388"/>
+    <mergeCell ref="A391:J391"/>
+    <mergeCell ref="A394:J394"/>
+    <mergeCell ref="A397:J397"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A369:J369"/>
@@ -31320,10 +31792,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A5BD4E-D9D5-EC40-82BA-13468FB5B33E}">
-  <dimension ref="A1:AA776"/>
+  <dimension ref="A1:AA763"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A378" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48730,24 +49202,30 @@
         <v>6628095</v>
       </c>
       <c r="B403" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C403" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="D403" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="E403" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F403" s="63"/>
-      <c r="G403" s="63"/>
-      <c r="H403" s="63"/>
-      <c r="I403" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="J403" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C403" s="93" t="s">
+        <v>442</v>
+      </c>
+      <c r="D403" s="93" t="s">
+        <v>444</v>
+      </c>
+      <c r="E403" s="93" t="s">
+        <v>441</v>
+      </c>
+      <c r="F403" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G403" s="94" t="s">
+        <v>490</v>
+      </c>
+      <c r="H403" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I403" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J403" s="30" t="s">
         <v>23</v>
       </c>
       <c r="K403" s="57"/>
@@ -48772,22 +49250,20 @@
         <v>6628095</v>
       </c>
       <c r="B404" s="62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C404" s="65" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D404" s="63" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="E404" s="63" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F404" s="63"/>
       <c r="G404" s="63"/>
-      <c r="H404" s="63" t="s">
-        <v>23</v>
-      </c>
+      <c r="H404" s="63"/>
       <c r="I404" s="63" t="s">
         <v>21</v>
       </c>
@@ -48812,16 +49288,30 @@
       <c r="Z404" s="58"/>
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A405" s="57"/>
-      <c r="B405" s="57"/>
-      <c r="C405" s="57"/>
-      <c r="D405" s="57"/>
-      <c r="E405" s="57"/>
-      <c r="F405" s="57"/>
-      <c r="G405" s="57"/>
-      <c r="H405" s="57"/>
-      <c r="I405" s="57"/>
-      <c r="J405" s="57"/>
+      <c r="A405" s="84">
+        <v>6628095</v>
+      </c>
+      <c r="B405" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C405" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D405" s="30"/>
+      <c r="E405" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="F405" s="30"/>
+      <c r="G405" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="H405" s="30"/>
+      <c r="I405" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J405" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="K405" s="57"/>
       <c r="L405" s="57"/>
       <c r="M405" s="57"/>
@@ -48841,16 +49331,32 @@
       <c r="AA405" s="58"/>
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A406" s="57"/>
-      <c r="B406" s="57"/>
-      <c r="C406" s="57"/>
-      <c r="D406" s="57"/>
-      <c r="E406" s="57"/>
-      <c r="F406" s="57"/>
-      <c r="G406" s="57"/>
-      <c r="H406" s="57"/>
-      <c r="I406" s="57"/>
-      <c r="J406" s="57"/>
+      <c r="A406" s="84">
+        <v>6628095</v>
+      </c>
+      <c r="B406" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C406" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D406" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E406" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F406" s="30"/>
+      <c r="G406" s="30"/>
+      <c r="H406" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I406" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J406" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="K406" s="57"/>
       <c r="L406" s="57"/>
       <c r="M406" s="57"/>
@@ -48869,7 +49375,7 @@
       <c r="Z406" s="58"/>
       <c r="AA406" s="58"/>
     </row>
-    <row r="407" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="57"/>
       <c r="B407" s="57"/>
       <c r="C407" s="57"/>
@@ -59222,385 +59728,13 @@
       <c r="Z763" s="58"/>
       <c r="AA763" s="58"/>
     </row>
-    <row r="764" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A764" s="57"/>
-      <c r="B764" s="57"/>
-      <c r="C764" s="57"/>
-      <c r="D764" s="57"/>
-      <c r="E764" s="57"/>
-      <c r="F764" s="57"/>
-      <c r="G764" s="57"/>
-      <c r="H764" s="57"/>
-      <c r="I764" s="57"/>
-      <c r="J764" s="57"/>
-      <c r="K764" s="57"/>
-      <c r="L764" s="57"/>
-      <c r="M764" s="57"/>
-      <c r="N764" s="57"/>
-      <c r="O764" s="57"/>
-      <c r="P764" s="58"/>
-      <c r="Q764" s="58"/>
-      <c r="R764" s="58"/>
-      <c r="S764" s="58"/>
-      <c r="T764" s="58"/>
-      <c r="U764" s="58"/>
-      <c r="V764" s="58"/>
-      <c r="W764" s="58"/>
-      <c r="X764" s="58"/>
-      <c r="Y764" s="58"/>
-      <c r="Z764" s="58"/>
-      <c r="AA764" s="58"/>
-    </row>
-    <row r="765" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A765" s="57"/>
-      <c r="B765" s="57"/>
-      <c r="C765" s="57"/>
-      <c r="D765" s="57"/>
-      <c r="E765" s="57"/>
-      <c r="F765" s="57"/>
-      <c r="G765" s="57"/>
-      <c r="H765" s="57"/>
-      <c r="I765" s="57"/>
-      <c r="J765" s="57"/>
-      <c r="K765" s="57"/>
-      <c r="L765" s="57"/>
-      <c r="M765" s="57"/>
-      <c r="N765" s="57"/>
-      <c r="O765" s="57"/>
-      <c r="P765" s="58"/>
-      <c r="Q765" s="58"/>
-      <c r="R765" s="58"/>
-      <c r="S765" s="58"/>
-      <c r="T765" s="58"/>
-      <c r="U765" s="58"/>
-      <c r="V765" s="58"/>
-      <c r="W765" s="58"/>
-      <c r="X765" s="58"/>
-      <c r="Y765" s="58"/>
-      <c r="Z765" s="58"/>
-      <c r="AA765" s="58"/>
-    </row>
-    <row r="766" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A766" s="57"/>
-      <c r="B766" s="57"/>
-      <c r="C766" s="57"/>
-      <c r="D766" s="57"/>
-      <c r="E766" s="57"/>
-      <c r="F766" s="57"/>
-      <c r="G766" s="57"/>
-      <c r="H766" s="57"/>
-      <c r="I766" s="57"/>
-      <c r="J766" s="57"/>
-      <c r="K766" s="57"/>
-      <c r="L766" s="57"/>
-      <c r="M766" s="57"/>
-      <c r="N766" s="57"/>
-      <c r="O766" s="57"/>
-      <c r="P766" s="58"/>
-      <c r="Q766" s="58"/>
-      <c r="R766" s="58"/>
-      <c r="S766" s="58"/>
-      <c r="T766" s="58"/>
-      <c r="U766" s="58"/>
-      <c r="V766" s="58"/>
-      <c r="W766" s="58"/>
-      <c r="X766" s="58"/>
-      <c r="Y766" s="58"/>
-      <c r="Z766" s="58"/>
-      <c r="AA766" s="58"/>
-    </row>
-    <row r="767" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A767" s="57"/>
-      <c r="B767" s="57"/>
-      <c r="C767" s="57"/>
-      <c r="D767" s="57"/>
-      <c r="E767" s="57"/>
-      <c r="F767" s="57"/>
-      <c r="G767" s="57"/>
-      <c r="H767" s="57"/>
-      <c r="I767" s="57"/>
-      <c r="J767" s="57"/>
-      <c r="K767" s="57"/>
-      <c r="L767" s="57"/>
-      <c r="M767" s="57"/>
-      <c r="N767" s="57"/>
-      <c r="O767" s="57"/>
-      <c r="P767" s="58"/>
-      <c r="Q767" s="58"/>
-      <c r="R767" s="58"/>
-      <c r="S767" s="58"/>
-      <c r="T767" s="58"/>
-      <c r="U767" s="58"/>
-      <c r="V767" s="58"/>
-      <c r="W767" s="58"/>
-      <c r="X767" s="58"/>
-      <c r="Y767" s="58"/>
-      <c r="Z767" s="58"/>
-      <c r="AA767" s="58"/>
-    </row>
-    <row r="768" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A768" s="57"/>
-      <c r="B768" s="57"/>
-      <c r="C768" s="57"/>
-      <c r="D768" s="57"/>
-      <c r="E768" s="57"/>
-      <c r="F768" s="57"/>
-      <c r="G768" s="57"/>
-      <c r="H768" s="57"/>
-      <c r="I768" s="57"/>
-      <c r="J768" s="57"/>
-      <c r="K768" s="57"/>
-      <c r="L768" s="57"/>
-      <c r="M768" s="57"/>
-      <c r="N768" s="57"/>
-      <c r="O768" s="57"/>
-      <c r="P768" s="58"/>
-      <c r="Q768" s="58"/>
-      <c r="R768" s="58"/>
-      <c r="S768" s="58"/>
-      <c r="T768" s="58"/>
-      <c r="U768" s="58"/>
-      <c r="V768" s="58"/>
-      <c r="W768" s="58"/>
-      <c r="X768" s="58"/>
-      <c r="Y768" s="58"/>
-      <c r="Z768" s="58"/>
-      <c r="AA768" s="58"/>
-    </row>
-    <row r="769" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A769" s="57"/>
-      <c r="B769" s="57"/>
-      <c r="C769" s="57"/>
-      <c r="D769" s="57"/>
-      <c r="E769" s="57"/>
-      <c r="F769" s="57"/>
-      <c r="G769" s="57"/>
-      <c r="H769" s="57"/>
-      <c r="I769" s="57"/>
-      <c r="J769" s="57"/>
-      <c r="K769" s="57"/>
-      <c r="L769" s="57"/>
-      <c r="M769" s="57"/>
-      <c r="N769" s="57"/>
-      <c r="O769" s="57"/>
-      <c r="P769" s="58"/>
-      <c r="Q769" s="58"/>
-      <c r="R769" s="58"/>
-      <c r="S769" s="58"/>
-      <c r="T769" s="58"/>
-      <c r="U769" s="58"/>
-      <c r="V769" s="58"/>
-      <c r="W769" s="58"/>
-      <c r="X769" s="58"/>
-      <c r="Y769" s="58"/>
-      <c r="Z769" s="58"/>
-      <c r="AA769" s="58"/>
-    </row>
-    <row r="770" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A770" s="57"/>
-      <c r="B770" s="57"/>
-      <c r="C770" s="57"/>
-      <c r="D770" s="57"/>
-      <c r="E770" s="57"/>
-      <c r="F770" s="57"/>
-      <c r="G770" s="57"/>
-      <c r="H770" s="57"/>
-      <c r="I770" s="57"/>
-      <c r="J770" s="57"/>
-      <c r="K770" s="57"/>
-      <c r="L770" s="57"/>
-      <c r="M770" s="57"/>
-      <c r="N770" s="57"/>
-      <c r="O770" s="57"/>
-      <c r="P770" s="58"/>
-      <c r="Q770" s="58"/>
-      <c r="R770" s="58"/>
-      <c r="S770" s="58"/>
-      <c r="T770" s="58"/>
-      <c r="U770" s="58"/>
-      <c r="V770" s="58"/>
-      <c r="W770" s="58"/>
-      <c r="X770" s="58"/>
-      <c r="Y770" s="58"/>
-      <c r="Z770" s="58"/>
-      <c r="AA770" s="58"/>
-    </row>
-    <row r="771" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A771" s="57"/>
-      <c r="B771" s="57"/>
-      <c r="C771" s="57"/>
-      <c r="D771" s="57"/>
-      <c r="E771" s="57"/>
-      <c r="F771" s="57"/>
-      <c r="G771" s="57"/>
-      <c r="H771" s="57"/>
-      <c r="I771" s="57"/>
-      <c r="J771" s="57"/>
-      <c r="K771" s="57"/>
-      <c r="L771" s="57"/>
-      <c r="M771" s="57"/>
-      <c r="N771" s="57"/>
-      <c r="O771" s="57"/>
-      <c r="P771" s="58"/>
-      <c r="Q771" s="58"/>
-      <c r="R771" s="58"/>
-      <c r="S771" s="58"/>
-      <c r="T771" s="58"/>
-      <c r="U771" s="58"/>
-      <c r="V771" s="58"/>
-      <c r="W771" s="58"/>
-      <c r="X771" s="58"/>
-      <c r="Y771" s="58"/>
-      <c r="Z771" s="58"/>
-      <c r="AA771" s="58"/>
-    </row>
-    <row r="772" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A772" s="57"/>
-      <c r="B772" s="57"/>
-      <c r="C772" s="57"/>
-      <c r="D772" s="57"/>
-      <c r="E772" s="57"/>
-      <c r="F772" s="57"/>
-      <c r="G772" s="57"/>
-      <c r="H772" s="57"/>
-      <c r="I772" s="57"/>
-      <c r="J772" s="57"/>
-      <c r="K772" s="57"/>
-      <c r="L772" s="57"/>
-      <c r="M772" s="57"/>
-      <c r="N772" s="57"/>
-      <c r="O772" s="57"/>
-      <c r="P772" s="58"/>
-      <c r="Q772" s="58"/>
-      <c r="R772" s="58"/>
-      <c r="S772" s="58"/>
-      <c r="T772" s="58"/>
-      <c r="U772" s="58"/>
-      <c r="V772" s="58"/>
-      <c r="W772" s="58"/>
-      <c r="X772" s="58"/>
-      <c r="Y772" s="58"/>
-      <c r="Z772" s="58"/>
-      <c r="AA772" s="58"/>
-    </row>
-    <row r="773" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A773" s="57"/>
-      <c r="B773" s="57"/>
-      <c r="C773" s="57"/>
-      <c r="D773" s="57"/>
-      <c r="E773" s="57"/>
-      <c r="F773" s="57"/>
-      <c r="G773" s="57"/>
-      <c r="H773" s="57"/>
-      <c r="I773" s="57"/>
-      <c r="J773" s="57"/>
-      <c r="K773" s="57"/>
-      <c r="L773" s="57"/>
-      <c r="M773" s="57"/>
-      <c r="N773" s="57"/>
-      <c r="O773" s="57"/>
-      <c r="P773" s="58"/>
-      <c r="Q773" s="58"/>
-      <c r="R773" s="58"/>
-      <c r="S773" s="58"/>
-      <c r="T773" s="58"/>
-      <c r="U773" s="58"/>
-      <c r="V773" s="58"/>
-      <c r="W773" s="58"/>
-      <c r="X773" s="58"/>
-      <c r="Y773" s="58"/>
-      <c r="Z773" s="58"/>
-      <c r="AA773" s="58"/>
-    </row>
-    <row r="774" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A774" s="57"/>
-      <c r="B774" s="57"/>
-      <c r="C774" s="57"/>
-      <c r="D774" s="57"/>
-      <c r="E774" s="57"/>
-      <c r="F774" s="57"/>
-      <c r="G774" s="57"/>
-      <c r="H774" s="57"/>
-      <c r="I774" s="57"/>
-      <c r="J774" s="57"/>
-      <c r="K774" s="57"/>
-      <c r="L774" s="57"/>
-      <c r="M774" s="57"/>
-      <c r="N774" s="57"/>
-      <c r="O774" s="57"/>
-      <c r="P774" s="58"/>
-      <c r="Q774" s="58"/>
-      <c r="R774" s="58"/>
-      <c r="S774" s="58"/>
-      <c r="T774" s="58"/>
-      <c r="U774" s="58"/>
-      <c r="V774" s="58"/>
-      <c r="W774" s="58"/>
-      <c r="X774" s="58"/>
-      <c r="Y774" s="58"/>
-      <c r="Z774" s="58"/>
-      <c r="AA774" s="58"/>
-    </row>
-    <row r="775" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A775" s="57"/>
-      <c r="B775" s="57"/>
-      <c r="C775" s="57"/>
-      <c r="D775" s="57"/>
-      <c r="E775" s="57"/>
-      <c r="F775" s="57"/>
-      <c r="G775" s="57"/>
-      <c r="H775" s="57"/>
-      <c r="I775" s="57"/>
-      <c r="J775" s="57"/>
-      <c r="K775" s="57"/>
-      <c r="L775" s="57"/>
-      <c r="M775" s="57"/>
-      <c r="N775" s="57"/>
-      <c r="O775" s="57"/>
-      <c r="P775" s="58"/>
-      <c r="Q775" s="58"/>
-      <c r="R775" s="58"/>
-      <c r="S775" s="58"/>
-      <c r="T775" s="58"/>
-      <c r="U775" s="58"/>
-      <c r="V775" s="58"/>
-      <c r="W775" s="58"/>
-      <c r="X775" s="58"/>
-      <c r="Y775" s="58"/>
-      <c r="Z775" s="58"/>
-      <c r="AA775" s="58"/>
-    </row>
-    <row r="776" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A776" s="57"/>
-      <c r="B776" s="57"/>
-      <c r="C776" s="57"/>
-      <c r="D776" s="57"/>
-      <c r="E776" s="57"/>
-      <c r="F776" s="57"/>
-      <c r="G776" s="57"/>
-      <c r="H776" s="57"/>
-      <c r="I776" s="57"/>
-      <c r="J776" s="57"/>
-      <c r="K776" s="57"/>
-      <c r="L776" s="57"/>
-      <c r="M776" s="57"/>
-      <c r="N776" s="57"/>
-      <c r="O776" s="57"/>
-      <c r="P776" s="58"/>
-      <c r="Q776" s="58"/>
-      <c r="R776" s="58"/>
-      <c r="S776" s="58"/>
-      <c r="T776" s="58"/>
-      <c r="U776" s="58"/>
-      <c r="V776" s="58"/>
-      <c r="W776" s="58"/>
-      <c r="X776" s="58"/>
-      <c r="Y776" s="58"/>
-      <c r="Z776" s="58"/>
-      <c r="AA776" s="58"/>
-    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A332:J332"/>
+    <mergeCell ref="A347:J347"/>
+    <mergeCell ref="A362:J362"/>
+    <mergeCell ref="A377:J377"/>
+    <mergeCell ref="A392:J392"/>
     <mergeCell ref="A317:J317"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A19:J19"/>
@@ -59617,12 +59751,8 @@
     <mergeCell ref="A95:J95"/>
     <mergeCell ref="A107:J107"/>
     <mergeCell ref="A134:J134"/>
-    <mergeCell ref="A332:J332"/>
-    <mergeCell ref="A347:J347"/>
-    <mergeCell ref="A362:J362"/>
-    <mergeCell ref="A377:J377"/>
-    <mergeCell ref="A392:J392"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
